--- a/docs/example_report.xlsx
+++ b/docs/example_report.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Boat report" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rower report R1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rower report Orren" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -363,7 +363,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Boat report for The Crew</t>
+          <t>Boat report for Orren</t>
         </is>
       </c>
     </row>
@@ -406,17 +406,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>t28</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>t32</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>start</t>
+          <t>t30</t>
         </is>
       </c>
     </row>
@@ -429,27 +419,17 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -461,7 +441,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -471,22 +451,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>36</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -498,32 +468,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>58</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -535,32 +495,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2:22.1</t>
+          <t>2:53.1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2:54.0</t>
+          <t>3:18.9</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2:18.4</t>
+          <t>2:48.6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2:19.0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2:13.6</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2:05.4</t>
+          <t>2:31.8</t>
         </is>
       </c>
     </row>
@@ -572,32 +522,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.56</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>6.66</t>
+          <t>6.56</t>
         </is>
       </c>
     </row>
@@ -609,32 +549,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>6.4</t>
+          <t>11.7</t>
         </is>
       </c>
     </row>
@@ -647,27 +577,17 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>79.3</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>99.1</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>6.3</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -680,27 +600,17 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -718,22 +628,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.3</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1.8</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -748,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +665,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rower report R1 </t>
+          <t xml:space="preserve">Rower report Orren </t>
         </is>
       </c>
     </row>
@@ -796,17 +696,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>t28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>t32</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>start</t>
+          <t>t30</t>
         </is>
       </c>
     </row>
@@ -825,22 +715,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>36</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -853,32 +733,22 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2:22.1</t>
+          <t>2:53.1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2:54.0</t>
+          <t>3:18.9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2:18.4</t>
+          <t>2:48.6</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2:19.0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2:13.6</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2:05.4</t>
+          <t>2:31.8</t>
         </is>
       </c>
     </row>
@@ -890,37 +760,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-66</t>
+          <t>-62</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-62</t>
+          <t>-57</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-62</t>
+          <t>-57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-63</t>
+          <t>-58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-62</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-62</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-60</t>
+          <t>-57</t>
         </is>
       </c>
     </row>
@@ -937,32 +797,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>35</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -974,44 +824,34 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>104</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>105</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>96</t>
+          <t>103</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Catch slip (°)  (40%)</t>
+          <t xml:space="preserve">Catch slip (°) </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1021,39 +861,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Finish wash (°)  (40%)</t>
+          <t xml:space="preserve">Finish wash (°) </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1063,30 +893,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1100,12 +920,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1115,22 +935,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>75</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -1144,27 +954,17 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>227</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>254</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>239</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>265</t>
+          <t>294</t>
         </is>
       </c>
     </row>
@@ -1179,8 +979,6 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1190,33 +988,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>350</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>146</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>211</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>206</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>313</t>
+          <t>287</t>
         </is>
       </c>
     </row>
@@ -1230,27 +1018,17 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>3.48</t>
+          <t>3.18</t>
         </is>
       </c>
     </row>
@@ -1265,8 +1043,6 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/example_report.xlsx
+++ b/docs/example_report.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Boat report" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rower report Orren" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rower report R1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -363,14 +363,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Boat report for Orren</t>
+          <t>Boat report for The Crew</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Calibration value: 1.0</t>
+          <t>Calibration value: 1</t>
         </is>
       </c>
     </row>
@@ -406,7 +406,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>t30</t>
+          <t>t28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>t32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>start</t>
         </is>
       </c>
     </row>
@@ -419,17 +429,27 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -441,22 +461,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -468,22 +498,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -495,22 +535,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2:53.1</t>
+          <t>2:07.0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3:18.9</t>
+          <t>2:39.0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2:48.6</t>
+          <t>2:09.3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2:31.8</t>
+          <t>2:04.5</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1:56.6</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1:45.5</t>
         </is>
       </c>
     </row>
@@ -522,22 +572,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>7.3</t>
         </is>
       </c>
     </row>
@@ -549,22 +609,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>6.2</t>
         </is>
       </c>
     </row>
@@ -577,17 +647,27 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>11.0</t>
         </is>
       </c>
     </row>
@@ -600,15 +680,25 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
@@ -623,17 +713,27 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>1.2</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6</t>
         </is>
       </c>
     </row>
@@ -648,7 +748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +765,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rower report Orren </t>
+          <t xml:space="preserve">Rower report R1 </t>
         </is>
       </c>
     </row>
@@ -696,7 +796,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>t30</t>
+          <t>t28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>t32</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>start</t>
         </is>
       </c>
     </row>
@@ -710,17 +820,27 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -733,22 +853,32 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2:53.1</t>
+          <t>2:07.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3:18.9</t>
+          <t>2:39.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2:48.6</t>
+          <t>2:09.3</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2:31.8</t>
+          <t>2:04.5</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1:56.6</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1:45.5</t>
         </is>
       </c>
     </row>
@@ -760,27 +890,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-62</t>
+          <t>-66</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-57</t>
+          <t>-59</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-57</t>
+          <t>-63</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-58</t>
+          <t>-63</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-57</t>
+          <t>-60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-55</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-53</t>
         </is>
       </c>
     </row>
@@ -797,22 +937,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -824,27 +974,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>103</t>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -861,22 +1021,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>6</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -893,22 +1063,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -920,27 +1100,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>88</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>81</t>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -954,17 +1144,27 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>334</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>402</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>510</t>
         </is>
       </c>
     </row>
@@ -979,6 +1179,8 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -988,23 +1190,33 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>540</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>225</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>272</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>292</t>
         </is>
       </c>
     </row>
@@ -1018,17 +1230,27 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>3.24</t>
         </is>
       </c>
     </row>
@@ -1043,6 +1265,8 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
